--- a/ЗАВОДЫ/ПОКОМ/ОПТы/2025/10,25/30,10,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 03,11,25/Заказ 30,10,25.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/ОПТы/2025/10,25/30,10,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 03,11,25/Заказ 30,10,25.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\30,10,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 03,11,25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\ПОКОМ\ОПТы\2025\10,25\30,10,25 ПОКОМ КИ ПРС(ЛП) на погрузку с филиалами на 03,11,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1D8611-CD81-4C2D-B008-33C9873EEA26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72067980-0BC5-4306-97E8-D98F473714A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$B$3:$C$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -981,7 +981,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J16" sqref="J16"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
